--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Sieve Bootstrap_Lineal_No_Estacionario_ARIMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.5491865430011136</v>
+        <v>0.5517173058659618</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.5453535474425103</v>
+        <v>0.5459255108496166</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.54443342947375</v>
+        <v>0.5516878418358931</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.5501904325073234</v>
+        <v>0.5513008456036581</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.5481793489731795</v>
+        <v>0.5503052085088433</v>
       </c>
     </row>
   </sheetData>
